--- a/medicine/Psychotrope/Château_de_Lusigny-sur-Ouche/Château_de_Lusigny-sur-Ouche.xlsx
+++ b/medicine/Psychotrope/Château_de_Lusigny-sur-Ouche/Château_de_Lusigny-sur-Ouche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Lusigny-sur-Ouche</t>
+          <t>Château_de_Lusigny-sur-Ouche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château de Lusigny-sur-Ouche est situé à Lusigny-sur-Ouche, dans le département de la Côte-d'Or.
 Au-dessus de la porte d'entrée, la date de 1690 confirme la fin des travaux de réédification du château dans la seconde moitié du XVIIe siècle, sur la base d'une ancienne ferme fortifiée.
-Ce monument fait l'objet d'un classement au titre des monuments historiques depuis le 12 janvier 1945 (escalier et coupole) et d'une inscription depuis le 22 juillet 1943 (château)[1]. 
+Ce monument fait l'objet d'un classement au titre des monuments historiques depuis le 12 janvier 1945 (escalier et coupole) et d'une inscription depuis le 22 juillet 1943 (château). 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Lusigny-sur-Ouche</t>
+          <t>Château_de_Lusigny-sur-Ouche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">[réf. nécessaire]En 1290, la seigneurie de Lusigny, dépendante de la baronnie d'Antigny, appartient à Guillaume de Montaigu.
 Puis la famille de Vienne en devient propriétaire.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Lusigny-sur-Ouche</t>
+          <t>Château_de_Lusigny-sur-Ouche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Les médaillons de Pierre Julien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au rez-de-chaussée du château, trois médaillons de plâtre représentent des scènes de la vie rurale au XVIIIe siècle dans un style néoclassique. Ces bas-reliefs sont l’œuvre de Pierre Julien, sculpteur français du XVIIIe s.[réf. nécessaire] 
 </t>
